--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2040525-BD54-4C04-B327-32C7171A979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B4577-1AEA-4B0E-970D-6EA33B353DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,12 +795,6 @@
   </si>
   <si>
     <t>effect_id</t>
-  </si>
-  <si>
-    <t>param_type</t>
-  </si>
-  <si>
-    <t>param_value</t>
   </si>
   <si>
     <t>연가창식: 은하유성탄</t>
@@ -910,9 +904,6 @@
   </si>
   <si>
     <t>trigger</t>
-  </si>
-  <si>
-    <t>trigger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1055,22 +1046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[창 오브젝트 인스턴스 id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[time_offset,damage,hit_cnt,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.4,6910,2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.8,6377,2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,18 +1390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[OJBECT_INSTANCE]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_OBJECT_OVERLAP]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_EXPLOSION]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[obj_id]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1459,15 +1422,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ON_SKILL_USE]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[INFLICT_KNOCKBACK,ON_HIT]</t>
+    <t>trigger_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_SKILL_USE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1023]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6910,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6377,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DEBUFF_IMMUNE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_OBJECT_SPAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion_hit_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion_hit_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion_hit_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,7 +1680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,6 +1735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -2201,7 +2214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,9 +2335,6 @@
     <xf numFmtId="177" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2431,6 +2441,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2920,19 +2939,19 @@
     <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="61.796875" style="41" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="43" t="s">
-        <v>48</v>
+      <c r="C2" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2940,13 +2959,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2954,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -2977,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -2994,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3011,106 +3030,106 @@
         <v>3</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="41">
+      <c r="C11" s="40">
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="40">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="40">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="41">
-        <v>8</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="41">
-        <v>9</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>74</v>
-      </c>
       <c r="F13" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>10</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3121,234 +3140,234 @@
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="43">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="43">
+        <v>3</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="45">
+        <v>4</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="55" t="s">
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C32" s="49">
+        <v>5</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="52" t="s">
+      <c r="E32" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="44">
-        <v>2</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-    </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="44">
-        <v>3</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="45" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C39" s="45">
+        <v>6</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="E39" s="46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="46">
-        <v>4</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="47" t="s">
+      <c r="F39" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="48"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C32" s="50">
-        <v>5</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="48"/>
-    </row>
-    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="49"/>
-    </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-    </row>
-    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C39" s="46">
-        <v>6</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="48" t="s">
-        <v>72</v>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="48" t="s">
-        <v>73</v>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="47" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="48"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="48"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="48"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="47"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="49"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="48"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C46" s="8"/>
@@ -3463,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3475,22 +3494,24 @@
     <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" style="3" customWidth="1"/>
     <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="8" customWidth="1"/>
-    <col min="13" max="15" width="15.69921875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="18.69921875" style="8" customWidth="1"/>
-    <col min="19" max="22" width="15.69921875" style="9" customWidth="1"/>
-    <col min="23" max="26" width="18.69921875" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="36" customWidth="1"/>
+    <col min="9" max="11" width="11.5" style="36" customWidth="1"/>
+    <col min="12" max="12" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="36" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" style="9" customWidth="1"/>
+    <col min="17" max="18" width="15.69921875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="18.69921875" style="8" customWidth="1"/>
+    <col min="20" max="23" width="15.69921875" style="9" customWidth="1"/>
+    <col min="24" max="27" width="18.69921875" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>10</v>
@@ -3502,45 +3523,50 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>65</v>
-      </c>
       <c r="I1" s="35" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="35"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="3"/>
+      <c r="S1" s="1"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="1"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>10000</v>
@@ -3548,46 +3574,53 @@
       <c r="C2" s="1">
         <v>100000</v>
       </c>
+      <c r="D2" s="77">
+        <v>4002</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
       </c>
       <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="36">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>85</v>
+      </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="1"/>
+      <c r="W2" s="3"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>10001</v>
@@ -3595,46 +3628,53 @@
       <c r="C3" s="1">
         <v>100000</v>
       </c>
+      <c r="D3" s="77">
+        <v>8000</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="36">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>82</v>
+      </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>10002</v>
@@ -3646,45 +3686,49 @@
         <v>1000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="36">
         <v>0</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="36">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="1"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>10003</v>
@@ -3696,45 +3740,49 @@
         <v>1000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="36">
         <v>8</v>
       </c>
-      <c r="I5" s="36">
+      <c r="K5" s="36">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="1"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>10004</v>
@@ -3746,45 +3794,49 @@
         <v>1000</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="36">
+        <v>8</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="36">
-        <v>8</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>10005</v>
@@ -3796,45 +3848,49 @@
         <v>1000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H7" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="36">
         <v>8</v>
       </c>
-      <c r="I7" s="36">
+      <c r="K7" s="36">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>10006</v>
@@ -3842,269 +3898,265 @@
       <c r="C8" s="1">
         <v>100000</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="78">
+        <v>4001</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>39</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="36">
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="36">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="78" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C9" s="5"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="3"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="3"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C10" s="5"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="1"/>
+      <c r="W10" s="3"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C11" s="5"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="3"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="1"/>
+      <c r="W12" s="3"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C14" s="5"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="1"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="16" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="1"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="1"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="3"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="1"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="1"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B4577-1AEA-4B0E-970D-6EA33B353DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2161586-1ADD-41A5-9F61-19F355F7BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t># 효과 발동 트리거</t>
+          <t># 효과 발동 조건</t>
         </r>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,23 +943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과 발동 트리거 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[10633,2,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,10 +1389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격 이상 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N회 타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,10 +1437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[DEBUFF_IMMUNE]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_OBJECT_SPAWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,6 +1450,39 @@
   </si>
   <si>
     <t>explosion_hit_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 지속 시간 9999 : 무제한 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 트리거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2214,7 +2222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,6 +2388,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2389,6 +2406,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2416,40 +2460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2483,13 +2494,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>436410</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>94768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9907</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2532,14 +2543,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381923</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>64393</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177197</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2581,14 +2592,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>107895</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44506</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>87652</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,9 +2937,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F73"/>
+  <dimension ref="B1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2945,13 +2956,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="42" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3039,13 +3050,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3056,10 +3067,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3081,13 +3092,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3095,285 +3106,287 @@
         <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="40"/>
+      <c r="D13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="40"/>
+      <c r="D14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="40"/>
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="18" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="43">
+        <v>1</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="43">
+        <v>2</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="43">
+        <v>3</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="45">
+        <v>4</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="40">
-        <v>9</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="40">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="43">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="43">
-        <v>2</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="43">
-        <v>3</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="45">
-        <v>4</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="53" t="s">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C33" s="49">
+        <v>5</v>
+      </c>
+      <c r="D33" s="50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="47" t="s">
+      <c r="E33" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="47"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="48"/>
-    </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-    </row>
-    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C32" s="49">
-        <v>5</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="53" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C40" s="45">
+        <v>6</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="47" t="s">
+      <c r="E40" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="48"/>
-    </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-    </row>
-    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C39" s="45">
-        <v>6</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="47" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="47"/>
-    </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="47"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="47"/>
     </row>
-    <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C47" s="8"/>
@@ -3382,7 +3395,10 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C48" s="1"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" s="1"/>
@@ -3459,18 +3475,21 @@
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C73" s="1"/>
     </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C74" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C41:E46"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:E45"/>
-    <mergeCell ref="C26:E30"/>
-    <mergeCell ref="C33:E37"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3497,19 +3516,19 @@
     <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.59765625" style="36" customWidth="1"/>
-    <col min="9" max="11" width="11.5" style="36" customWidth="1"/>
-    <col min="12" max="12" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="36" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" style="9" customWidth="1"/>
-    <col min="17" max="18" width="15.69921875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="18.69921875" style="8" customWidth="1"/>
-    <col min="20" max="23" width="15.69921875" style="9" customWidth="1"/>
-    <col min="24" max="27" width="18.69921875" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="8.796875" style="4"/>
+    <col min="9" max="12" width="11.5" style="36" customWidth="1"/>
+    <col min="13" max="13" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="36" customWidth="1"/>
+    <col min="16" max="17" width="15.69921875" style="9" customWidth="1"/>
+    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
+    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
+    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -3523,65 +3542,68 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>59</v>
-      </c>
       <c r="L1" s="35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="1"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="56">
         <v>10000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="57">
         <v>100000</v>
       </c>
-      <c r="D2" s="77">
-        <v>4002</v>
+      <c r="D2" s="79">
+        <v>4010</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -3590,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="36">
         <v>0</v>
@@ -3598,47 +3620,47 @@
       <c r="K2" s="36">
         <v>0</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="3"/>
+      <c r="M2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>0</v>
+      </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="1"/>
+      <c r="X2" s="3"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="56">
         <v>10001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="57">
         <v>100000</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="79">
         <v>8000</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3" s="36">
         <v>0</v>
@@ -3652,47 +3674,47 @@
       <c r="K3" s="36">
         <v>0</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="3"/>
+      <c r="M3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="3"/>
+      <c r="T3" s="1"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="3"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="56">
         <v>10002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="57">
         <v>100000</v>
       </c>
       <c r="D4" s="5">
         <v>1000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" s="36">
         <v>0</v>
@@ -3706,47 +3728,47 @@
       <c r="K4" s="36">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="3"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="1"/>
+      <c r="X4" s="3"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="56">
         <v>10003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="57">
         <v>100000</v>
       </c>
       <c r="D5" s="5">
         <v>1000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5" s="36">
         <v>0</v>
@@ -3760,47 +3782,47 @@
       <c r="K5" s="36">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="3"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="1"/>
+      <c r="X5" s="3"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="56">
         <v>10004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="57">
         <v>100000</v>
       </c>
       <c r="D6" s="5">
         <v>1000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H6" s="36">
         <v>0.4</v>
@@ -3814,47 +3836,47 @@
       <c r="K6" s="36">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="3"/>
+      <c r="N6" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="3"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="1"/>
+      <c r="X6" s="3"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="56">
         <v>10005</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="57">
         <v>100000</v>
       </c>
       <c r="D7" s="5">
         <v>1000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="36">
         <v>0.8</v>
@@ -3868,51 +3890,51 @@
       <c r="K7" s="36">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="3"/>
+      <c r="N7" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="1"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="56">
         <v>10006</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="57">
         <v>100000</v>
       </c>
-      <c r="D8" s="78">
-        <v>4001</v>
+      <c r="D8" s="57">
+        <v>5001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="36">
         <v>0</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="36">
         <v>0</v>
@@ -3920,75 +3942,75 @@
       <c r="K8" s="36">
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="78" t="s">
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C9" s="5"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C10" s="5"/>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C11" s="5"/>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="3"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="1"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3996,21 +4018,22 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4025,37 +4048,38 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="3"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C14" s="5"/>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="3"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="16" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -4070,21 +4094,22 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4099,37 +4124,38 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="3"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
-      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="1"/>
+      <c r="X18" s="3"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
@@ -4144,19 +4170,20 @@
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2161586-1ADD-41A5-9F61-19F355F7BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A51DD-A6A0-424B-A57C-438828C9730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,10 +919,6 @@
   </si>
   <si>
     <t>MELEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KNOCKBACK]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1377,10 +1373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[state]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,6 +1475,26 @@
       </rPr>
       <t>(메모 참고)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 - 난무 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 - 집중 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[500,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[300,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2222,7 +2234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2406,6 +2418,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2433,34 +2472,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2940,7 +2955,7 @@
   <dimension ref="B1:F74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2956,13 +2971,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="42" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="42" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3050,13 +3065,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3067,10 +3082,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3084,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3092,13 +3107,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3106,37 +3121,37 @@
         <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="40"/>
       <c r="D13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="40"/>
       <c r="D14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
@@ -3145,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3159,13 +3174,13 @@
     </row>
     <row r="18" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="C19" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3173,13 +3188,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3196,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="E22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3216,17 +3231,17 @@
         <v>22</v>
       </c>
       <c r="E24" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="45">
@@ -3236,42 +3251,42 @@
         <v>23</v>
       </c>
       <c r="E26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="47"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="47"/>
     </row>
     <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="48"/>
     </row>
     <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3285,47 +3300,47 @@
         <v>5</v>
       </c>
       <c r="D33" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="F33" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="53" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="48"/>
     </row>
     <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3339,53 +3354,53 @@
         <v>6</v>
       </c>
       <c r="D40" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="F40" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="53" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="47"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="47"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="76"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="48"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
@@ -3480,16 +3495,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C41:E46"/>
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="C34:E38"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3542,31 +3557,31 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>58</v>
-      </c>
       <c r="L1" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N1" s="35" t="s">
         <v>8</v>
@@ -3587,44 +3602,26 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="56">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="79">
-        <v>4010</v>
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5">
+        <v>305000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="36">
-        <v>0</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="36">
-        <v>0</v>
-      </c>
-      <c r="K2" s="36">
-        <v>0</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -3641,44 +3638,26 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="56">
-        <v>10001</v>
-      </c>
-      <c r="C3" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="79">
-        <v>8000</v>
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5">
+        <v>305001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="36">
-        <v>0</v>
-      </c>
-      <c r="K3" s="36">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -3695,45 +3674,14 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="56">
-        <v>10002</v>
-      </c>
-      <c r="C4" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="36">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
@@ -3748,46 +3696,22 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="56">
-        <v>10003</v>
-      </c>
-      <c r="C5" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="36">
-        <v>8</v>
-      </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
@@ -3803,45 +3727,7 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="56">
-        <v>10004</v>
-      </c>
-      <c r="C6" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="36">
-        <v>8</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
@@ -3857,45 +3743,7 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="56">
-        <v>10005</v>
-      </c>
-      <c r="C7" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="36">
-        <v>8</v>
-      </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
@@ -3915,26 +3763,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="56">
-        <v>10006</v>
-      </c>
-      <c r="C8" s="57">
-        <v>100000</v>
-      </c>
-      <c r="D8" s="57">
-        <v>5001</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>10000</v>
+      </c>
+      <c r="C8" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4010</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
       <c r="H8" s="36">
         <v>0</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="36">
         <v>0</v>
@@ -3942,11 +3792,11 @@
       <c r="K8" s="36">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>32</v>
+      <c r="M8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>0</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -3963,7 +3813,45 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C9" s="5"/>
+      <c r="A9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="56">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>78</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
@@ -3979,7 +3867,45 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C10" s="5"/>
+      <c r="A10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="56">
+        <v>10002</v>
+      </c>
+      <c r="C10" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
@@ -3995,7 +3921,45 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C11" s="5"/>
+      <c r="A11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="56">
+        <v>10003</v>
+      </c>
+      <c r="C11" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="36">
+        <v>8</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
@@ -4011,14 +3975,45 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="A12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="56">
+        <v>10004</v>
+      </c>
+      <c r="C12" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="36">
+        <v>8</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
@@ -4033,22 +4028,46 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="56">
+        <v>10005</v>
+      </c>
+      <c r="C13" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="36">
+        <v>8</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
@@ -4064,7 +4083,43 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C14" s="5"/>
+      <c r="A14" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="56">
+        <v>10006</v>
+      </c>
+      <c r="C14" s="79">
+        <v>305260</v>
+      </c>
+      <c r="D14" s="57">
+        <v>4980</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
@@ -4079,22 +4134,24 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C16" s="5"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
@@ -4109,22 +4166,8 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
@@ -4141,6 +4184,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
@@ -4158,7 +4208,7 @@
     <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -4185,6 +4235,128 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C20" s="5"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C24" s="5"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A51DD-A6A0-424B-A57C-438828C9730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7315A-C354-4A9D-9E55-EDB048EDD855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -432,19 +432,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CIRCLE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 원형 범위
-</t>
+          <t xml:space="preserve">CIRCLE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 원형 범위</t>
         </r>
         <r>
           <rPr>
@@ -456,7 +455,32 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>RECTANGLE</t>
+          <t xml:space="preserve">
+FAN </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 부채꼴 범위</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+RECTANGLE</t>
         </r>
         <r>
           <rPr>
@@ -468,30 +492,6 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> : 사각형 범위
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>TRIANGLE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 삼각형 범위
 </t>
         </r>
       </text>
@@ -2234,7 +2234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2418,6 +2418,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,39 +2470,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,33 +2948,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.75" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="73" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +2988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="40">
         <v>4</v>
@@ -3074,7 +3068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="40">
         <v>5</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="40">
         <v>6</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" s="40">
         <v>7</v>
       </c>
@@ -3116,7 +3110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" s="40">
         <v>8</v>
       </c>
@@ -3130,7 +3124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" s="40"/>
       <c r="D13" s="27" t="s">
         <v>85</v>
@@ -3142,7 +3136,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" s="40"/>
       <c r="D14" s="27" t="s">
         <v>53</v>
@@ -3154,7 +3148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="40"/>
       <c r="D15" s="27" t="s">
         <v>8</v>
@@ -3166,24 +3160,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="18" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="76" t="s">
+    <row r="18" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="43">
         <v>1</v>
       </c>
@@ -3197,13 +3191,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="43">
         <v>2</v>
       </c>
@@ -3217,13 +3211,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="43">
         <v>3</v>
       </c>
@@ -3237,13 +3231,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="45">
         <v>4</v>
       </c>
@@ -3257,45 +3251,45 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+    <row r="31" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="48"/>
     </row>
-    <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="58"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="27" x14ac:dyDescent="0.3">
       <c r="C33" s="49">
         <v>5</v>
       </c>
@@ -3309,47 +3303,47 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
+    <row r="38" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="58"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:6" ht="27" x14ac:dyDescent="0.3">
       <c r="C40" s="45">
         <v>6</v>
       </c>
@@ -3363,148 +3357,148 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="47"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="47"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="47"/>
     </row>
-    <row r="46" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
+    <row r="46" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="78"/>
       <c r="F46" s="48"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C41:E46"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C34:E38"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C41:E46"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C34:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3518,32 +3512,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="36" customWidth="1"/>
     <col min="9" max="12" width="11.5" style="36" customWidth="1"/>
-    <col min="13" max="13" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="36" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="9" customWidth="1"/>
-    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
-    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
-    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="8.796875" style="4"/>
+    <col min="16" max="17" width="15.75" style="9" customWidth="1"/>
+    <col min="18" max="19" width="15.75" style="8" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="8" customWidth="1"/>
+    <col min="21" max="24" width="15.75" style="9" customWidth="1"/>
+    <col min="25" max="28" width="18.75" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -3601,7 +3595,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
@@ -3637,7 +3631,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
@@ -3673,7 +3667,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3696,7 +3690,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3726,7 +3720,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -3742,7 +3736,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C7" s="5"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -3758,14 +3752,14 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="56">
         <v>10000</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="1">
         <v>305260</v>
       </c>
       <c r="D8" s="5">
@@ -3795,7 +3789,7 @@
       <c r="M8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="36" t="s">
         <v>0</v>
       </c>
       <c r="P8" s="3"/>
@@ -3812,14 +3806,14 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="56">
         <v>10001</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="1">
         <v>305260</v>
       </c>
       <c r="D9" s="5">
@@ -3866,14 +3860,14 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="56">
         <v>10002</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="1">
         <v>305260</v>
       </c>
       <c r="D10" s="5">
@@ -3920,14 +3914,14 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="56">
         <v>10003</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="1">
         <v>305260</v>
       </c>
       <c r="D11" s="5">
@@ -3974,14 +3968,14 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="56">
         <v>10004</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="1">
         <v>305260</v>
       </c>
       <c r="D12" s="5">
@@ -4028,14 +4022,14 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="56">
         <v>10005</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="1">
         <v>305260</v>
       </c>
       <c r="D13" s="5">
@@ -4082,14 +4076,14 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="56">
         <v>10006</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="1">
         <v>305260</v>
       </c>
       <c r="D14" s="57">
@@ -4114,10 +4108,10 @@
       <c r="K14" s="36">
         <v>0</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="79" t="s">
+      <c r="N14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="3"/>
@@ -4134,7 +4128,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -4150,7 +4144,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -4166,7 +4160,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -4182,7 +4176,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -4205,7 +4199,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4235,7 +4229,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4251,7 +4245,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -4281,7 +4275,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4311,7 +4305,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4327,7 +4321,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7315A-C354-4A9D-9E55-EDB048EDD855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E855C0-28C3-4238-9AB9-A648D208B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -919,23 +919,6 @@
   </si>
   <si>
     <t>MELEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 적용 영역 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1495,6 +1478,23 @@
   </si>
   <si>
     <t>[300,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 적용 영역 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2418,6 +2418,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,33 +2470,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2948,33 +2948,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.75" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.69921875" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="64" t="s">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
@@ -3053,22 +3053,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
       <c r="C8" s="40">
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" s="40">
         <v>5</v>
       </c>
@@ -3076,13 +3076,13 @@
         <v>27</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C10" s="40">
         <v>6</v>
       </c>
@@ -3093,111 +3093,111 @@
         <v>9</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" s="40">
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" s="40">
         <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="40"/>
       <c r="D13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="40"/>
       <c r="D14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" s="40"/>
       <c r="D15" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="18" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+    <row r="18" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="43">
         <v>1</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="43">
         <v>2</v>
       </c>
@@ -3205,19 +3205,19 @@
         <v>31</v>
       </c>
       <c r="E22" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="43">
         <v>3</v>
       </c>
@@ -3225,19 +3225,19 @@
         <v>22</v>
       </c>
       <c r="E24" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="45">
         <v>4</v>
       </c>
@@ -3245,260 +3245,260 @@
         <v>23</v>
       </c>
       <c r="E26" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
+    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="48"/>
     </row>
-    <row r="32" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C32" s="58"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="3:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C33" s="49">
         <v>5</v>
       </c>
       <c r="D33" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="F33" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
+    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="58"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="3:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C40" s="45">
         <v>6</v>
       </c>
       <c r="D40" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="F40" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="47"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="47"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="47"/>
     </row>
-    <row r="46" spans="3:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="76"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
+    <row r="46" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="48"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C41:E46"/>
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="C34:E38"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3516,28 +3516,28 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="36" customWidth="1"/>
     <col min="9" max="12" width="11.5" style="36" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="36" customWidth="1"/>
-    <col min="16" max="17" width="15.75" style="9" customWidth="1"/>
-    <col min="18" max="19" width="15.75" style="8" customWidth="1"/>
-    <col min="20" max="20" width="18.75" style="8" customWidth="1"/>
-    <col min="21" max="24" width="15.75" style="9" customWidth="1"/>
-    <col min="25" max="28" width="18.75" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="8.75" style="4"/>
+    <col min="16" max="17" width="15.69921875" style="9" customWidth="1"/>
+    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
+    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
+    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -3551,31 +3551,31 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N1" s="35" t="s">
         <v>8</v>
@@ -3595,9 +3595,9 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5">
         <v>305000</v>
@@ -3606,16 +3606,16 @@
         <v>1000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -3631,9 +3631,9 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5">
         <v>305001</v>
@@ -3642,16 +3642,16 @@
         <v>1000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -3667,7 +3667,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3690,7 +3690,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3720,7 +3720,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C6" s="5"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -3736,7 +3736,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C7" s="5"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -3752,7 +3752,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
@@ -3766,10 +3766,10 @@
         <v>4010</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="36">
         <v>0</v>
@@ -3806,7 +3806,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
@@ -3823,10 +3823,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="36">
         <v>0</v>
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3860,7 +3860,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
@@ -3874,13 +3874,13 @@
         <v>1000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="36">
         <v>0</v>
@@ -3914,7 +3914,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
@@ -3928,13 +3928,13 @@
         <v>1000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="36">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -3968,7 +3968,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>1000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="36">
         <v>0.4</v>
@@ -4006,7 +4006,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -4022,7 +4022,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="39" t="s">
         <v>13</v>
       </c>
@@ -4036,13 +4036,13 @@
         <v>1000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="36">
         <v>0.8</v>
@@ -4060,7 +4060,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -4076,7 +4076,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="39" t="s">
         <v>13</v>
       </c>
@@ -4090,17 +4090,17 @@
         <v>4980</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="36">
         <v>0</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="36">
         <v>0</v>
@@ -4128,7 +4128,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C15" s="5"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -4144,7 +4144,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -4160,7 +4160,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -4176,7 +4176,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -4199,7 +4199,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4229,7 +4229,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4245,7 +4245,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -4275,7 +4275,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4305,7 +4305,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4321,7 +4321,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E855C0-28C3-4238-9AB9-A648D208B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F5B55B-8953-4136-8651-F4B441BD2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{4995B60B-8438-4D5E-AF4C-07D21607FADE}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{4995B60B-8438-4D5E-AF4C-07D21607FADE}">
       <text>
         <r>
           <rPr>
@@ -344,6 +344,240 @@
             <scheme val="minor"/>
           </rPr>
           <t>등등</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{993BF568-5484-4349-91F5-B8D1B8100683}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트리거</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>태그</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>]
+atk_N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>차</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hit_N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">target_grade_* : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등급의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
         </r>
       </text>
     </comment>
@@ -496,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
       <text>
         <r>
           <rPr>
@@ -746,7 +980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,10 +1044,6 @@
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -914,10 +1144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MELEE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1198,49 +1424,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area_value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area_value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 값 - v1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 값 - v2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1356,22 +1540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N회 타격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 타격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상태 이상 면역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1380,10 +1548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ON_SKILL_USE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_HIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,10 +1556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time_offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,36 +1576,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>explosion_hit_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explosion_hit_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explosion_hit_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 지속 시간 9999 : 무제한 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 트리거 </t>
+    <t>[damage,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[500,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[300,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 적용 영역 유형 </t>
     </r>
     <r>
       <rPr>
@@ -1461,28 +1605,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 공격 - 난무 스탠스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 - 집중 스탠스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[500,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[300,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 적용 영역 유형 </t>
+    <t>청룡진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중 시</t>
+  </si>
+  <si>
+    <t>RECTANGLE</t>
+  </si>
+  <si>
+    <t>[base_dmg,hit_cnt,stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[577,1,41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1153,1,41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 (변형 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//효과 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 (난무 스탠스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 (집중 스탠스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창(투사체) 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 타격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 타격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 타격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 피해 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 타격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
     </r>
     <r>
       <rPr>
@@ -1495,6 +1812,93 @@
       </rPr>
       <t>(메모 참고)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_1 ~ hit 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">퍼펙트 존 피해 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오버차지 피해 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1_perfect_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1_overcharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE_SKILL_CASTING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1911,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,8 +2103,55 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,8 +2212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2228,13 +2685,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,9 +2891,6 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2400,14 +2936,35 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2471,6 +3028,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2503,14 +3075,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>436410</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>94768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9907</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161311</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2552,14 +3124,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381923</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>64393</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177198</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,14 +3173,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>107895</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44506</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>87653</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2946,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F74"/>
+  <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2959,19 +3531,19 @@
     <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.69921875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="61.69921875" style="40" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="42" t="s">
-        <v>38</v>
+      <c r="C2" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2993,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -3016,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -3033,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3050,352 +3622,349 @@
         <v>3</v>
       </c>
       <c r="F7" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="39">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="22"/>
-      <c r="C8" s="40">
-        <v>4</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="39">
+        <v>7</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="40">
-        <v>7</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="39">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="39">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="39">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="42">
+        <v>2</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="42">
+        <v>3</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="44">
+        <v>4</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C32" s="48">
+        <v>5</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="28" t="s">
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C39" s="44">
+        <v>6</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="40">
-        <v>8</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="40"/>
-      <c r="D13" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="40"/>
-      <c r="D14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="40"/>
-      <c r="D15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="18" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="43">
-        <v>1</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="43">
-        <v>2</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-    </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="43">
-        <v>3</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="45">
-        <v>4</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
-    </row>
-    <row r="33" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C33" s="49">
-        <v>5</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="48"/>
-    </row>
-    <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-    </row>
-    <row r="40" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C40" s="45">
-        <v>6</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="47" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="47" t="s">
-        <v>63</v>
-      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="47"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="47"/>
     </row>
-    <row r="46" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="48"/>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C47" s="8"/>
@@ -3404,10 +3973,7 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" s="1"/>
@@ -3484,21 +4050,18 @@
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C41:E46"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C40:E45"/>
+    <mergeCell ref="C26:E30"/>
+    <mergeCell ref="C33:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3510,848 +4073,1238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="18.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="36" customWidth="1"/>
-    <col min="9" max="12" width="11.5" style="36" customWidth="1"/>
-    <col min="13" max="13" width="21.09765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="36" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="9" customWidth="1"/>
-    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
-    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
-    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="8.69921875" style="4"/>
+    <col min="7" max="7" width="16.3984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="36" customWidth="1"/>
+    <col min="9" max="10" width="7.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="9" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" style="8" customWidth="1"/>
+    <col min="18" max="21" width="15.69921875" style="9" customWidth="1"/>
+    <col min="22" max="25" width="18.69921875" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
+        <v>305000</v>
+      </c>
+      <c r="E2" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55">
+        <v>305001</v>
+      </c>
+      <c r="E3" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55">
+        <v>305180</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+    </row>
+    <row r="6" spans="1:25" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A7" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="55">
+        <v>3052500</v>
+      </c>
+      <c r="D7" s="55">
+        <v>305250</v>
+      </c>
+      <c r="E7" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="56">
+        <v>4</v>
+      </c>
+      <c r="J7" s="56">
+        <v>12</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="86"/>
+      <c r="B8" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="55">
+        <v>3052501</v>
+      </c>
+      <c r="D8" s="55">
+        <v>305250</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="56">
+        <v>4</v>
+      </c>
+      <c r="J8" s="56">
+        <v>16</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3052510</v>
+      </c>
+      <c r="D9" s="55">
+        <v>305251</v>
+      </c>
+      <c r="E9" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="56">
+        <v>4</v>
+      </c>
+      <c r="J9" s="56">
+        <v>12</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="86"/>
+      <c r="B10" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3052511</v>
+      </c>
+      <c r="D10" s="55">
+        <v>305251</v>
+      </c>
+      <c r="E10" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="56">
+        <v>4</v>
+      </c>
+      <c r="J10" s="56">
+        <v>16</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A13" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="55">
+        <v>3052600</v>
+      </c>
+      <c r="D13" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E13" s="55">
+        <v>4980</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="56">
+        <v>0</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A14" s="88"/>
+      <c r="B14" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="55">
+        <v>3052601</v>
+      </c>
+      <c r="D14" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4982</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="56">
+        <v>0</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A15" s="88"/>
+      <c r="B15" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="55">
+        <v>3052602</v>
+      </c>
+      <c r="D15" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E15" s="55">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="56">
+        <v>0</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A16" s="88"/>
+      <c r="B16" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="55">
+        <v>3052603</v>
+      </c>
+      <c r="D16" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E16" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="56">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17" s="88"/>
+      <c r="B17" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="55">
+        <v>3052604</v>
+      </c>
+      <c r="D17" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E17" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="56">
+        <v>8</v>
+      </c>
+      <c r="J17" s="56">
+        <v>0</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18" s="88"/>
+      <c r="B18" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="55">
+        <v>3052605</v>
+      </c>
+      <c r="D18" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E18" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="56">
+        <v>8</v>
+      </c>
+      <c r="J18" s="56">
+        <v>0</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="88"/>
+      <c r="B19" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="55">
+        <v>3052606</v>
+      </c>
+      <c r="D19" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E19" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="56">
+        <v>8</v>
+      </c>
+      <c r="J19" s="56">
+        <v>0</v>
+      </c>
+      <c r="K19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5">
-        <v>305000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="5">
-        <v>305001</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C6" s="5"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C7" s="5"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="56">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="L19" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="88"/>
+      <c r="B20" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="55">
+        <v>3052607</v>
+      </c>
+      <c r="D20" s="57">
         <v>305260</v>
       </c>
-      <c r="D8" s="5">
-        <v>4010</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E20" s="55">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+    </row>
+    <row r="21" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="89"/>
+      <c r="B21" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="55">
+        <v>3052608</v>
+      </c>
+      <c r="D21" s="57">
+        <v>305260</v>
+      </c>
+      <c r="E21" s="55">
+        <v>5501</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="56">
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="J21" s="56">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="36">
+      <c r="K21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="36">
+      <c r="L21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="56">
-        <v>10001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8000</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
-        <v>0</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="56">
-        <v>10002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="36">
-        <v>0</v>
-      </c>
-      <c r="K10" s="36">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="56">
-        <v>10003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="36">
-        <v>8</v>
-      </c>
-      <c r="K11" s="36">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="56">
-        <v>10004</v>
-      </c>
-      <c r="C12" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="36">
-        <v>8</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="56">
-        <v>10005</v>
-      </c>
-      <c r="C13" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="36">
-        <v>8</v>
-      </c>
-      <c r="K13" s="36">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="56">
-        <v>10006</v>
-      </c>
-      <c r="C14" s="1">
-        <v>305260</v>
-      </c>
-      <c r="D14" s="57">
-        <v>4980</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="36">
-        <v>0</v>
-      </c>
-      <c r="K14" s="36">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C15" s="5"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C16" s="5"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C17" s="5"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C20" s="5"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="22" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="C24" s="5"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+    </row>
+    <row r="26" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+    </row>
+    <row r="29" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+    </row>
+    <row r="30" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+    </row>
+    <row r="32" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F5B55B-8953-4136-8651-F4B441BD2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A365947-2375-48BE-A2E2-652067CE9D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -980,7 +980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,10 +1140,6 @@
     <t>area_type</t>
   </si>
   <si>
-    <t>[damage,hit_cnt,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MELEE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1246,23 +1242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* area_value[]를 간략하게 v[]로 표현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1613,9 +1592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적중 시</t>
-  </si>
-  <si>
     <t>RECTANGLE</t>
   </si>
   <si>
@@ -1672,7 +1648,124 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">일반 타격 </t>
+      <t xml:space="preserve">일반 피해 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_1 ~ hit 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">퍼펙트 존 피해 </t>
     </r>
     <r>
       <rPr>
@@ -1689,7 +1782,132 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">일반 타격 </t>
+      <t xml:space="preserve">오버차지 피해 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1_perfect_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_1_overcharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE_SKILL_CASTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>atk_1</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>atk_2</t>
+  </si>
+  <si>
+    <t>atk_3</t>
+  </si>
+  <si>
+    <t>atk_4</t>
+  </si>
+  <si>
+    <t>paralysis</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>[2785,2,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4453,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2785,8,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5571,1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 적룡질풍격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역</t>
+  </si>
+  <si>
+    <t>상태 이상 면역</t>
+  </si>
+  <si>
+    <t>적 당겨오기</t>
+  </si>
+  <si>
+    <t>경직</t>
+  </si>
+  <si>
+    <t>피격 이상</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 공격 </t>
     </r>
     <r>
       <rPr>
@@ -1706,7 +1924,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">일반 타격 </t>
+      <t xml:space="preserve">돌진 공격 </t>
     </r>
     <r>
       <rPr>
@@ -1722,8 +1940,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">일반 피해 </t>
+    <t>청룡진 (변형 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(area_v1) / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(area_v2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 충돌 </t>
     </r>
     <r>
       <rPr>
@@ -1739,125 +2028,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area_v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area_v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">투사체 타격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_1 ~ hit 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">퍼펙트 존 피해 </t>
+    <r>
+      <t xml:space="preserve">폭발 공격 </t>
     </r>
     <r>
       <rPr>
@@ -1874,7 +2046,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">오버차지 피해 </t>
+      <t xml:space="preserve">폭발 공격 </t>
     </r>
     <r>
       <rPr>
@@ -1885,20 +2057,25 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1_perfect_zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1_overcharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHILE_SKILL_CASTING</t>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1911,7 +2088,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2150,8 +2327,35 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,14 +2416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2444,21 +2642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2686,84 +2869,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="0"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="0"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2773,16 +2922,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,16 +3025,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,149 +3037,185 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="30" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3052,6 +3225,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDF4D3"/>
+      <color rgb="FFFBE8A5"/>
       <color rgb="FFFFFFD5"/>
       <color rgb="FFFFFFC5"/>
       <color rgb="FFF9FAFD"/>
@@ -3521,456 +3696,456 @@
   <dimension ref="B1:F73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.69921875" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="4"/>
+    <col min="6" max="6" width="61.69921875" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="41" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="39">
+      <c r="C8" s="35">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>99</v>
+      <c r="E8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <v>5</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>100</v>
+      <c r="D9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>6</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>72</v>
+      <c r="F10" s="29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <v>7</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>96</v>
+      <c r="D11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="39">
+      <c r="C12" s="35">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>97</v>
+      <c r="D12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="39">
+      <c r="C13" s="35">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="D13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="35">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="39">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="53" t="s">
+      <c r="C18" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="38">
+        <v>2</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="50" t="s">
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="38">
+        <v>3</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="40">
+        <v>4</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-    </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="42">
-        <v>2</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-    </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="42">
-        <v>3</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="44">
-        <v>4</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="45" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C32" s="44">
+        <v>5</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="E32" s="45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="46" t="s">
+      <c r="F32" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C39" s="40">
+        <v>6</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-    </row>
-    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C32" s="48">
-        <v>5</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="46" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-    </row>
-    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C39" s="44">
-        <v>6</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="46"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="46"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="46"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="47"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="1"/>
@@ -4052,16 +4227,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C40:E45"/>
+    <mergeCell ref="C26:E30"/>
+    <mergeCell ref="C33:E37"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:E45"/>
-    <mergeCell ref="C26:E30"/>
-    <mergeCell ref="C33:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4073,1238 +4248,1501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.69921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="36" customWidth="1"/>
-    <col min="9" max="10" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.69921875" style="9" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" style="8" customWidth="1"/>
-    <col min="18" max="21" width="15.69921875" style="9" customWidth="1"/>
-    <col min="22" max="25" width="18.69921875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.69921875" style="4"/>
+    <col min="1" max="2" width="18.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="34" customWidth="1"/>
+    <col min="9" max="10" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="8" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" style="7" customWidth="1"/>
+    <col min="18" max="21" width="15.69921875" style="8" customWidth="1"/>
+    <col min="22" max="25" width="18.69921875" style="7" customWidth="1"/>
+    <col min="26" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="35" t="s">
+      <c r="I1" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="A2" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="75">
         <v>305000</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="75">
         <v>1000</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="F2" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="75">
+        <v>305001</v>
+      </c>
+      <c r="E3" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55">
-        <v>305001</v>
-      </c>
-      <c r="E3" s="55">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+    </row>
+    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+    </row>
+    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="80">
+        <v>305180</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="80">
+        <v>305180</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A8" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="80">
+        <v>305180</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="80">
+        <v>305180</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A10" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="91">
+        <v>3052500</v>
+      </c>
+      <c r="D11" s="80">
+        <v>305250</v>
+      </c>
+      <c r="E11" s="80">
         <v>1000</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-    </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="54" t="s">
+      <c r="F11" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="I11" s="81">
+        <v>4</v>
+      </c>
+      <c r="J11" s="81">
+        <v>12</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="85"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="91">
+        <v>3052501</v>
+      </c>
+      <c r="D12" s="80">
+        <v>305250</v>
+      </c>
+      <c r="E12" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55">
-        <v>305180</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="85" t="s">
+      <c r="I12" s="81">
+        <v>4</v>
+      </c>
+      <c r="J12" s="81">
+        <v>16</v>
+      </c>
+      <c r="K12" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="55">
-        <v>3052500</v>
-      </c>
-      <c r="D7" s="55">
-        <v>305250</v>
-      </c>
-      <c r="E7" s="55">
+      <c r="L12" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A13" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="91">
+        <v>3052510</v>
+      </c>
+      <c r="D13" s="80">
+        <v>305251</v>
+      </c>
+      <c r="E13" s="80">
         <v>1000</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F13" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="81">
+        <v>4</v>
+      </c>
+      <c r="J13" s="81">
+        <v>12</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="56">
-        <v>4</v>
-      </c>
-      <c r="J7" s="56">
-        <v>12</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="86"/>
-      <c r="B8" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="55">
-        <v>3052501</v>
-      </c>
-      <c r="D8" s="55">
-        <v>305250</v>
-      </c>
-      <c r="E8" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="56">
-        <v>4</v>
-      </c>
-      <c r="J8" s="56">
-        <v>16</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="55">
-        <v>3052510</v>
-      </c>
-      <c r="D9" s="55">
-        <v>305251</v>
-      </c>
-      <c r="E9" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="56">
-        <v>4</v>
-      </c>
-      <c r="J9" s="56">
-        <v>12</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-    </row>
-    <row r="10" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="86"/>
-      <c r="B10" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="55">
-        <v>3052511</v>
-      </c>
-      <c r="D10" s="55">
-        <v>305251</v>
-      </c>
-      <c r="E10" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="56">
-        <v>4</v>
-      </c>
-      <c r="J10" s="56">
-        <v>16</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-    </row>
-    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="55">
-        <v>3052600</v>
-      </c>
-      <c r="D13" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E13" s="55">
-        <v>4980</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="56">
-        <v>0</v>
-      </c>
-      <c r="J13" s="56">
-        <v>0</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="88"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="91">
+        <v>3052511</v>
+      </c>
+      <c r="D14" s="80">
+        <v>305251</v>
+      </c>
+      <c r="E14" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="55">
+      <c r="G14" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="81">
+        <v>4</v>
+      </c>
+      <c r="J14" s="81">
+        <v>16</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="85"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A15" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="91">
+        <v>3052600</v>
+      </c>
+      <c r="D15" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E15" s="80">
+        <v>4980</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="81">
+        <v>0</v>
+      </c>
+      <c r="J15" s="81">
+        <v>0</v>
+      </c>
+      <c r="K15" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A16" s="92"/>
+      <c r="B16" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="91">
         <v>3052601</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D16" s="82">
         <v>305260</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E16" s="80">
         <v>4982</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F16" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="81">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81">
+        <v>0</v>
+      </c>
+      <c r="K16" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="85"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17" s="92"/>
+      <c r="B17" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="91">
+        <v>3052602</v>
+      </c>
+      <c r="D17" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E17" s="80">
+        <v>8000</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="81">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81">
+        <v>0</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="85"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18" s="92"/>
+      <c r="B18" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="91">
+        <v>3052603</v>
+      </c>
+      <c r="D18" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E18" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="81">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81">
+        <v>0</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="85"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="92"/>
+      <c r="B19" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="91">
+        <v>3052604</v>
+      </c>
+      <c r="D19" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E19" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="81">
+        <v>8</v>
+      </c>
+      <c r="J19" s="81">
+        <v>0</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="85"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="92"/>
+      <c r="B20" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="91">
+        <v>3052605</v>
+      </c>
+      <c r="D20" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E20" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="81">
+        <v>8</v>
+      </c>
+      <c r="J20" s="81">
+        <v>0</v>
+      </c>
+      <c r="K20" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="85"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="92"/>
+      <c r="B21" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="91">
+        <v>3052606</v>
+      </c>
+      <c r="D21" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E21" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="81">
+        <v>8</v>
+      </c>
+      <c r="J21" s="81">
+        <v>0</v>
+      </c>
+      <c r="K21" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="85"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="92"/>
+      <c r="B22" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="91">
+        <v>3052607</v>
+      </c>
+      <c r="D22" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E22" s="80">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+    </row>
+    <row r="23" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="92"/>
+      <c r="B23" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="91">
+        <v>3052608</v>
+      </c>
+      <c r="D23" s="82">
+        <v>305260</v>
+      </c>
+      <c r="E23" s="80">
+        <v>5501</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="81">
+        <v>0</v>
+      </c>
+      <c r="J23" s="81">
+        <v>0</v>
+      </c>
+      <c r="K23" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="85"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="91">
+        <v>3052700</v>
+      </c>
+      <c r="D24" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E24" s="80">
+        <v>4980</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="81">
+        <v>0</v>
+      </c>
+      <c r="J24" s="81">
+        <v>0</v>
+      </c>
+      <c r="K24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="85"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="92"/>
+      <c r="B25" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="91">
+        <v>3052701</v>
+      </c>
+      <c r="D25" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E25" s="80">
+        <v>4982</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="81">
+        <v>0</v>
+      </c>
+      <c r="J25" s="81">
+        <v>0</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="86"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+    </row>
+    <row r="26" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="92"/>
+      <c r="B26" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="91">
+        <v>3052702</v>
+      </c>
+      <c r="D26" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E26" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="81">
+        <v>5</v>
+      </c>
+      <c r="J26" s="81">
+        <v>10</v>
+      </c>
+      <c r="K26" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="85"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+    </row>
+    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92"/>
+      <c r="B27" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="91">
+        <v>3052703</v>
+      </c>
+      <c r="D27" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E27" s="80">
+        <v>5501</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="81">
+        <v>0</v>
+      </c>
+      <c r="J27" s="81">
+        <v>0</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="85"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="92"/>
+      <c r="B28" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="91">
+        <v>3052704</v>
+      </c>
+      <c r="D28" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E28" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="81">
+        <v>10</v>
+      </c>
+      <c r="J28" s="81">
+        <v>8</v>
+      </c>
+      <c r="K28" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="85"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+    </row>
+    <row r="29" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="92"/>
+      <c r="B29" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="91">
+        <v>3052705</v>
+      </c>
+      <c r="D29" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E29" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="81">
+        <v>10</v>
+      </c>
+      <c r="J29" s="81">
+        <v>8</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="85"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="92"/>
+      <c r="B30" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="91">
+        <v>3052706</v>
+      </c>
+      <c r="D30" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E30" s="80">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="H30" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="81">
+        <v>10</v>
+      </c>
+      <c r="J30" s="81">
+        <v>5</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="86"/>
+      <c r="N30" s="84"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="92"/>
+      <c r="B31" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="91">
+        <v>3052707</v>
+      </c>
+      <c r="D31" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E31" s="80">
+        <v>5500</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="81">
         <v>0</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J31" s="81">
         <v>0</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K31" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L31" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A15" s="88"/>
-      <c r="B15" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="55">
-        <v>3052602</v>
-      </c>
-      <c r="D15" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E15" s="55">
-        <v>8000</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="56">
+      <c r="M31" s="86"/>
+      <c r="N31" s="84"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="92"/>
+      <c r="B32" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="91">
+        <v>3052708</v>
+      </c>
+      <c r="D32" s="80">
+        <v>305270</v>
+      </c>
+      <c r="E32" s="80">
+        <v>5501</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="81">
         <v>0</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J32" s="81">
         <v>0</v>
       </c>
-      <c r="K15" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A16" s="88"/>
-      <c r="B16" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="55">
-        <v>3052603</v>
-      </c>
-      <c r="D16" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E16" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="56">
+      <c r="K32" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="L32" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" s="88"/>
-      <c r="B17" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="55">
-        <v>3052604</v>
-      </c>
-      <c r="D17" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E17" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="56">
-        <v>8</v>
-      </c>
-      <c r="J17" s="56">
-        <v>0</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="88"/>
-      <c r="B18" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="55">
-        <v>3052605</v>
-      </c>
-      <c r="D18" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E18" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="56">
-        <v>8</v>
-      </c>
-      <c r="J18" s="56">
-        <v>0</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="88"/>
-      <c r="B19" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="55">
-        <v>3052606</v>
-      </c>
-      <c r="D19" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E19" s="55">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="56">
-        <v>8</v>
-      </c>
-      <c r="J19" s="56">
-        <v>0</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="88"/>
-      <c r="B20" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="55">
-        <v>3052607</v>
-      </c>
-      <c r="D20" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E20" s="55">
-        <v>5500</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-    </row>
-    <row r="21" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="89"/>
-      <c r="B21" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="55">
-        <v>3052608</v>
-      </c>
-      <c r="D21" s="57">
-        <v>305260</v>
-      </c>
-      <c r="E21" s="55">
-        <v>5501</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="56">
-        <v>0</v>
-      </c>
-      <c r="J21" s="56">
-        <v>0</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-    </row>
-    <row r="26" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-    </row>
-    <row r="29" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-    </row>
-    <row r="30" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-    </row>
-    <row r="32" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="84"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="84"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="84"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="87"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="87"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A21"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A365947-2375-48BE-A2E2-652067CE9D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115CEFF-8EF0-42DF-9D1F-4D0C418A280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -508,37 +508,18 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타격</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">타격
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">target_grade_* : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
+          <t>target_grade_*</t>
         </r>
         <r>
           <rPr>
@@ -547,6 +528,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> : * </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등급의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
@@ -557,7 +557,56 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>등급의</t>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>target_grade_up_*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : * </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등급</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상의</t>
         </r>
         <r>
           <rPr>
@@ -980,7 +1029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1607,10 +1656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적룡포 (변형 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//효과 요약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1631,36 +1676,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격 이상 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경직 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1회 타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>창(투사체) 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">일반 피해 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1744,10 +1764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit_1 ~ hit 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1764,40 +1780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">퍼펙트 존 피해 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">오버차지 피해 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk_1_perfect_zone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,18 +1792,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_27</t>
-  </si>
-  <si>
     <t>DEFAULT</t>
   </si>
   <si>
     <t>atk_1</t>
   </si>
   <si>
-    <t>pull</t>
-  </si>
-  <si>
     <t>atk_2</t>
   </si>
   <si>
@@ -1829,12 +1805,6 @@
   </si>
   <si>
     <t>atk_4</t>
-  </si>
-  <si>
-    <t>paralysis</t>
-  </si>
-  <si>
-    <t>push</t>
   </si>
   <si>
     <t>[2785,2,5]</t>
@@ -2076,6 +2046,130 @@
       </rPr>
       <t>(dmg_4)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hit_1,hit_6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hit_1,hit_15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">퍼펙트 존 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오버차지 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[727,1,29]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_SKILL_CAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cri_rate,duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 (변형 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2922,7 +3016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3082,69 +3176,6 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3160,48 +3191,18 @@
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="30" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3215,6 +3216,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="30" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3696,7 +3760,7 @@
   <dimension ref="B1:F73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3712,11 +3776,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
@@ -3811,7 +3875,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3825,7 +3889,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3847,13 +3911,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3861,13 +3925,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -3906,13 +3970,13 @@
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="49" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3930,10 +3994,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="38">
@@ -3950,10 +4014,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
     </row>
     <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="38">
@@ -3970,10 +4034,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="40">
@@ -3990,42 +4054,42 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C32" s="44">
@@ -4042,44 +4106,44 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="43"/>
     </row>
     <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
     </row>
     <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C39" s="40">
@@ -4096,43 +4160,43 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
       <c r="F41" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="42"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="42"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="42"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="43"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
@@ -4252,12 +4316,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
@@ -4275,41 +4340,41 @@
     <col min="26" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="97" t="s">
+      <c r="I1" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2"/>
@@ -4326,35 +4391,35 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="75">
+    <row r="2" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54">
         <v>305000</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="54">
         <v>1000</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="50"/>
@@ -4367,35 +4432,35 @@
       <c r="X2" s="50"/>
       <c r="Y2" s="50"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="75">
+    <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54">
         <v>305001</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="54">
         <v>1000</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
       <c r="Q3" s="50"/>
@@ -4408,21 +4473,20 @@
       <c r="X3" s="50"/>
       <c r="Y3" s="50"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
+    <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
@@ -4435,21 +4499,21 @@
       <c r="X4" s="50"/>
       <c r="Y4" s="50"/>
     </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="78"/>
+    <row r="5" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="50"/>
@@ -4462,25 +4526,41 @@
       <c r="X5" s="50"/>
       <c r="Y5" s="50"/>
     </row>
-    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="80">
+      <c r="B6" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="54">
+        <v>3051800</v>
+      </c>
+      <c r="D6" s="54">
         <v>305180</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="78"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -4493,23 +4573,42 @@
       <c r="X6" s="50"/>
       <c r="Y6" s="50"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="80">
+    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="54">
+        <v>3051801</v>
+      </c>
+      <c r="D7" s="54">
         <v>305180</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="78"/>
+      <c r="E7" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="55">
+        <v>4</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
       <c r="Q7" s="50"/>
@@ -4522,25 +4621,41 @@
       <c r="X7" s="50"/>
       <c r="Y7" s="50"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="80">
-        <v>305180</v>
-      </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="78"/>
+    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="54">
+        <v>3051810</v>
+      </c>
+      <c r="D8" s="54">
+        <v>305181</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
       <c r="Q8" s="50"/>
@@ -4553,23 +4668,42 @@
       <c r="X8" s="50"/>
       <c r="Y8" s="50"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="80">
-        <v>305180</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="78"/>
+    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="54">
+        <v>3051811</v>
+      </c>
+      <c r="D9" s="54">
+        <v>305181</v>
+      </c>
+      <c r="E9" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="55">
+        <v>4</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="50"/>
@@ -4582,25 +4716,27 @@
       <c r="X9" s="50"/>
       <c r="Y9" s="50"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="78"/>
+    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
@@ -4613,45 +4749,45 @@
       <c r="X10" s="50"/>
       <c r="Y10" s="50"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="88" t="s">
+    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="91">
+      <c r="B11" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="54">
         <v>3052500</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="54">
         <v>305250</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="54">
         <v>1000</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="55">
         <v>4</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="55">
         <v>12</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="78"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
       <c r="Q11" s="50"/>
@@ -4664,43 +4800,42 @@
       <c r="X11" s="50"/>
       <c r="Y11" s="50"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="91">
+    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="54">
         <v>3052501</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="54">
         <v>305250</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="54">
         <v>1000</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="55">
         <v>4</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="55">
         <v>16</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="78"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
@@ -4713,45 +4848,45 @@
       <c r="X12" s="50"/>
       <c r="Y12" s="50"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="91">
+    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="54">
         <v>3052510</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="54">
         <v>305251</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="54">
         <v>1000</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="80" t="s">
+      <c r="G13" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="55">
         <v>4</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="55">
         <v>12</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="78"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
@@ -4764,43 +4899,42 @@
       <c r="X13" s="50"/>
       <c r="Y13" s="50"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="91">
+    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="54">
         <v>3052511</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="54">
         <v>305251</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="54">
         <v>1000</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="80" t="s">
+      <c r="G14" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="55">
         <v>4</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="55">
         <v>16</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="78"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="50"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
@@ -4813,43 +4947,45 @@
       <c r="X14" s="50"/>
       <c r="Y14" s="50"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="B15" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="54">
         <v>3052600</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="54">
         <v>305260</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="54">
         <v>4980</v>
       </c>
-      <c r="F15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81" t="s">
+      <c r="F15" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="55">
         <v>0</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="55">
         <v>0</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="78"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
@@ -4862,41 +4998,43 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A16" s="92"/>
-      <c r="B16" s="90" t="s">
+    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="54">
         <v>3052601</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="54">
         <v>305260</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="54">
         <v>4982</v>
       </c>
-      <c r="F16" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81" t="s">
+      <c r="F16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="55">
         <v>0</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="55">
         <v>0</v>
       </c>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="78"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
@@ -4909,43 +5047,43 @@
       <c r="X16" s="50"/>
       <c r="Y16" s="50"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" s="92"/>
-      <c r="B17" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="91">
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="54">
         <v>3052602</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="54">
         <v>305260</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="54">
         <v>8000</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="55">
         <v>0</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="55">
         <v>0</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="83" t="s">
+      <c r="L17" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="85"/>
-      <c r="N17" s="78"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
       <c r="O17" s="50"/>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
@@ -4958,43 +5096,43 @@
       <c r="X17" s="50"/>
       <c r="Y17" s="50"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="92"/>
-      <c r="B18" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="91">
+    <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="54">
         <v>3052603</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="54">
         <v>305260</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="54">
         <v>1000</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="81" t="s">
+      <c r="G18" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="55">
         <v>0</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="55">
         <v>0</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="85"/>
-      <c r="N18" s="78"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
@@ -5007,43 +5145,43 @@
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="92"/>
-      <c r="B19" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="91">
+    <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="54">
         <v>3052604</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="54">
         <v>305260</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="54">
         <v>1000</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="81" t="s">
+      <c r="G19" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="55">
         <v>8</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="55">
         <v>0</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="78"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="50"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
@@ -5056,43 +5194,43 @@
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="92"/>
-      <c r="B20" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="91">
+    <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="54">
         <v>3052605</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="54">
         <v>305260</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="54">
         <v>1000</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="81" t="s">
+      <c r="G20" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="55">
         <v>8</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="55">
         <v>0</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="82" t="s">
+      <c r="L20" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="78"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
       <c r="O20" s="50"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
@@ -5105,43 +5243,43 @@
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="92"/>
-      <c r="B21" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="91">
+    <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="54">
         <v>3052606</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="54">
         <v>305260</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="54">
         <v>1000</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="81" t="s">
+      <c r="G21" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="55">
         <v>8</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="55">
         <v>0</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="85"/>
-      <c r="N21" s="78"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
@@ -5154,33 +5292,43 @@
       <c r="X21" s="50"/>
       <c r="Y21" s="50"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="92"/>
-      <c r="B22" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="91">
+    <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="54">
         <v>3052607</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="54">
         <v>305260</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="54">
         <v>5500</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78"/>
+      <c r="G22" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="55">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55">
+        <v>0</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
       <c r="O22" s="50"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
@@ -5193,43 +5341,43 @@
       <c r="X22" s="50"/>
       <c r="Y22" s="50"/>
     </row>
-    <row r="23" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="92"/>
-      <c r="B23" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="91">
+    <row r="23" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="54">
         <v>3052608</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="54">
         <v>305260</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="54">
         <v>5501</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="81" t="s">
+      <c r="G23" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="55">
         <v>0</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="55">
         <v>0</v>
       </c>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="85"/>
-      <c r="N23" s="78"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
       <c r="O23" s="50"/>
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
@@ -5242,45 +5390,45 @@
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="91">
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="54">
         <v>3052700</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="54">
         <v>305270</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="54">
         <v>4980</v>
       </c>
-      <c r="F24" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="81">
+      <c r="F24" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="55">
         <v>0</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="55">
         <v>0</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="85"/>
-      <c r="N24" s="76"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
@@ -5293,43 +5441,43 @@
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="92"/>
-      <c r="B25" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="91">
+    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="54">
         <v>3052701</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="54">
         <v>305270</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="54">
         <v>4982</v>
       </c>
-      <c r="F25" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="81">
+      <c r="F25" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="55">
         <v>0</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="55">
         <v>0</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L25" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="76"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="55"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -5342,43 +5490,43 @@
       <c r="X25" s="49"/>
       <c r="Y25" s="49"/>
     </row>
-    <row r="26" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="92"/>
-      <c r="B26" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="91">
+    <row r="26" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="54">
         <v>3052702</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="54">
         <v>305270</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="54">
         <v>1000</v>
       </c>
-      <c r="F26" s="80" t="s">
+      <c r="F26" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="80" t="s">
+      <c r="G26" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="55">
         <v>5</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="55">
         <v>10</v>
       </c>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="85"/>
-      <c r="N26" s="76"/>
+      <c r="L26" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="55"/>
       <c r="O26" s="50"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="50"/>
@@ -5391,43 +5539,43 @@
       <c r="X26" s="50"/>
       <c r="Y26" s="50"/>
     </row>
-    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="92"/>
-      <c r="B27" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="91">
+    <row r="27" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="54">
         <v>3052703</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="54">
         <v>305270</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="54">
         <v>5501</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="81">
+      <c r="G27" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="55">
         <v>0</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="55">
         <v>0</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L27" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M27" s="85"/>
-      <c r="N27" s="78"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
       <c r="O27" s="50"/>
       <c r="P27" s="50"/>
       <c r="Q27" s="50"/>
@@ -5440,43 +5588,43 @@
       <c r="X27" s="50"/>
       <c r="Y27" s="50"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="92"/>
-      <c r="B28" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="91">
+    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="54">
         <v>3052704</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="54">
         <v>305270</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="54">
         <v>1000</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="81" t="s">
+      <c r="G28" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="55">
         <v>10</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="55">
         <v>8</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="85"/>
-      <c r="N28" s="78"/>
+      <c r="L28" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="50"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="50"/>
@@ -5489,43 +5637,43 @@
       <c r="X28" s="50"/>
       <c r="Y28" s="50"/>
     </row>
-    <row r="29" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="92"/>
-      <c r="B29" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="91">
+    <row r="29" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="54">
         <v>3052705</v>
       </c>
-      <c r="D29" s="80">
+      <c r="D29" s="54">
         <v>305270</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="54">
         <v>1000</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="81" t="s">
+      <c r="G29" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="55">
         <v>10</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="55">
         <v>8</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="85"/>
-      <c r="N29" s="78"/>
+      <c r="L29" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
       <c r="O29" s="50"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="50"/>
@@ -5538,209 +5686,201 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="92"/>
-      <c r="B30" s="90" t="s">
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="54">
+        <v>3052706</v>
+      </c>
+      <c r="D30" s="54">
+        <v>305270</v>
+      </c>
+      <c r="E30" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="55">
+        <v>10</v>
+      </c>
+      <c r="J30" s="55">
+        <v>5</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+    </row>
+    <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="54">
+        <v>3052707</v>
+      </c>
+      <c r="D31" s="54">
+        <v>305270</v>
+      </c>
+      <c r="E31" s="54">
+        <v>5500</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="91">
-        <v>3052706</v>
-      </c>
-      <c r="D30" s="80">
+      <c r="H31" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="55">
+        <v>0</v>
+      </c>
+      <c r="J31" s="55">
+        <v>0</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+    </row>
+    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="54">
+        <v>3052708</v>
+      </c>
+      <c r="D32" s="54">
         <v>305270</v>
       </c>
-      <c r="E30" s="80">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="80" t="s">
+      <c r="E32" s="54">
+        <v>5501</v>
+      </c>
+      <c r="F32" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="81">
-        <v>10</v>
-      </c>
-      <c r="J30" s="81">
-        <v>5</v>
-      </c>
-      <c r="K30" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" s="86"/>
-      <c r="N30" s="84"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="92"/>
-      <c r="B31" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="91">
-        <v>3052707</v>
-      </c>
-      <c r="D31" s="80">
-        <v>305270</v>
-      </c>
-      <c r="E31" s="80">
-        <v>5500</v>
-      </c>
-      <c r="F31" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="81">
+      <c r="G32" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="55">
         <v>0</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J32" s="55">
         <v>0</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K32" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L32" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="86"/>
-      <c r="N31" s="84"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="92"/>
-      <c r="B32" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="91">
-        <v>3052708</v>
-      </c>
-      <c r="D32" s="80">
-        <v>305270</v>
-      </c>
-      <c r="E32" s="80">
-        <v>5501</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="81">
-        <v>0</v>
-      </c>
-      <c r="J32" s="81">
-        <v>0</v>
-      </c>
-      <c r="K32" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="86"/>
-      <c r="N32" s="84"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="84"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="84"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="87"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="87"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+    </row>
+    <row r="33" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+    </row>
+    <row r="34" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+    </row>
+    <row r="35" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+    </row>
+    <row r="37" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+    </row>
+    <row r="38" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115CEFF-8EF0-42DF-9D1F-4D0C418A280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3436B-F551-4918-940D-0D709FD59E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="141">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1760,10 +1760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2049,22 +2045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[hit_1,hit_6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[hit_1,hit_15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>debuff_immune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2153,10 +2133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[727,1,29]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_SKILL_CAST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2170,6 +2146,26 @@
   </si>
   <si>
     <t>적룡포 (변형 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg,hit_cnt,stagger,weak_point]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[727,1,29,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3227,6 +3223,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3252,33 +3275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3776,11 +3772,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
@@ -3970,13 +3966,13 @@
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -4034,10 +4030,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="40">
@@ -4054,35 +4050,35 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4106,37 +4102,37 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="43"/>
     </row>
     <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4160,43 +4156,43 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="42"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="42"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="42"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78"/>
       <c r="F45" s="43"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
@@ -4291,16 +4287,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C40:E45"/>
     <mergeCell ref="C26:E30"/>
     <mergeCell ref="C33:E37"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4315,8 +4311,8 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4326,11 +4322,11 @@
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="34" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" style="34" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.69921875" style="8" customWidth="1"/>
     <col min="15" max="16" width="15.69921875" style="7" customWidth="1"/>
@@ -4531,7 +4527,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="54">
         <v>3051800</v>
@@ -4541,23 +4537,23 @@
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
@@ -4575,7 +4571,7 @@
     </row>
     <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C7" s="54">
         <v>3051801</v>
@@ -4590,7 +4586,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>22</v>
@@ -4598,11 +4594,11 @@
       <c r="I7" s="55">
         <v>4</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>137</v>
@@ -4623,10 +4619,10 @@
     </row>
     <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C8" s="54">
         <v>3051810</v>
@@ -4636,23 +4632,23 @@
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -4670,7 +4666,7 @@
     </row>
     <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C9" s="54">
         <v>3051811</v>
@@ -4685,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="54" t="s">
         <v>22</v>
@@ -4693,11 +4689,11 @@
       <c r="I9" s="55">
         <v>4</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="L9" s="55" t="s">
         <v>137</v>
@@ -4718,13 +4714,13 @@
     </row>
     <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
@@ -4754,7 +4750,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C11" s="54">
         <v>3052500</v>
@@ -4769,7 +4765,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>73</v>
@@ -4802,7 +4798,7 @@
     </row>
     <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C12" s="54">
         <v>3052501</v>
@@ -4817,7 +4813,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="54" t="s">
         <v>73</v>
@@ -4850,10 +4846,10 @@
     </row>
     <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="53" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C13" s="54">
         <v>3052510</v>
@@ -4868,7 +4864,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="54" t="s">
         <v>73</v>
@@ -4901,7 +4897,7 @@
     </row>
     <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C14" s="54">
         <v>3052511</v>
@@ -4916,7 +4912,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="54" t="s">
         <v>73</v>
@@ -4964,18 +4960,18 @@
         <v>4980</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="55" t="s">
@@ -5013,18 +5009,18 @@
         <v>4982</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="55" t="s">
@@ -5070,10 +5066,10 @@
       <c r="H17" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="55" t="s">
@@ -5099,7 +5095,7 @@
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="61"/>
       <c r="B18" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="54">
         <v>3052603</v>
@@ -5114,15 +5110,15 @@
         <v>60</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="56" t="s">
@@ -5148,7 +5144,7 @@
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="61"/>
       <c r="B19" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="54">
         <v>3052604</v>
@@ -5163,7 +5159,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="55" t="s">
         <v>22</v>
@@ -5171,7 +5167,7 @@
       <c r="I19" s="55">
         <v>8</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="56" t="s">
@@ -5197,7 +5193,7 @@
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="61"/>
       <c r="B20" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="54">
         <v>3052605</v>
@@ -5212,7 +5208,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="55" t="s">
         <v>22</v>
@@ -5220,7 +5216,7 @@
       <c r="I20" s="55">
         <v>8</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="56" t="s">
@@ -5246,7 +5242,7 @@
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="61"/>
       <c r="B21" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="54">
         <v>3052606</v>
@@ -5261,7 +5257,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>22</v>
@@ -5269,7 +5265,7 @@
       <c r="I21" s="55">
         <v>8</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="56" t="s">
@@ -5295,7 +5291,7 @@
     <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="61"/>
       <c r="B22" s="61" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" s="54">
         <v>3052607</v>
@@ -5310,15 +5306,15 @@
         <v>60</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="55">
+        <v>97</v>
+      </c>
+      <c r="I22" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="55" t="s">
@@ -5344,7 +5340,7 @@
     <row r="23" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="61"/>
       <c r="B23" s="61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C23" s="54">
         <v>3052608</v>
@@ -5359,15 +5355,15 @@
         <v>60</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="56" t="s">
@@ -5392,10 +5388,10 @@
     </row>
     <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="61" t="s">
         <v>107</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>108</v>
       </c>
       <c r="C24" s="54">
         <v>3052700</v>
@@ -5407,18 +5403,18 @@
         <v>4980</v>
       </c>
       <c r="F24" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="55">
+      <c r="I24" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="55" t="s">
@@ -5444,7 +5440,7 @@
     <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="61"/>
       <c r="B25" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="54">
         <v>3052701</v>
@@ -5456,18 +5452,18 @@
         <v>4982</v>
       </c>
       <c r="F25" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="55">
+      <c r="I25" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="55" t="s">
@@ -5493,7 +5489,7 @@
     <row r="26" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="61"/>
       <c r="B26" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="54">
         <v>3052702</v>
@@ -5508,7 +5504,7 @@
         <v>60</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="54" t="s">
         <v>73</v>
@@ -5523,7 +5519,7 @@
         <v>74</v>
       </c>
       <c r="L26" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="55"/>
@@ -5542,7 +5538,7 @@
     <row r="27" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="61"/>
       <c r="B27" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="54">
         <v>3052703</v>
@@ -5557,15 +5553,15 @@
         <v>60</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="55">
+        <v>97</v>
+      </c>
+      <c r="I27" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K27" s="55" t="s">
@@ -5591,7 +5587,7 @@
     <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="61"/>
       <c r="B28" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="54">
         <v>3052704</v>
@@ -5606,7 +5602,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="55" t="s">
         <v>73</v>
@@ -5621,7 +5617,7 @@
         <v>74</v>
       </c>
       <c r="L28" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -5640,7 +5636,7 @@
     <row r="29" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="61"/>
       <c r="B29" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="54">
         <v>3052705</v>
@@ -5655,7 +5651,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>73</v>
@@ -5670,7 +5666,7 @@
         <v>74</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -5689,7 +5685,7 @@
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="61"/>
       <c r="B30" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="54">
         <v>3052706</v>
@@ -5704,7 +5700,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="55" t="s">
         <v>73</v>
@@ -5719,7 +5715,7 @@
         <v>74</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -5727,7 +5723,7 @@
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="61"/>
       <c r="B31" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="54">
         <v>3052707</v>
@@ -5742,15 +5738,15 @@
         <v>60</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="55">
+        <v>97</v>
+      </c>
+      <c r="I31" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K31" s="55" t="s">
@@ -5765,7 +5761,7 @@
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="61"/>
       <c r="B32" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="54">
         <v>3052708</v>
@@ -5779,16 +5775,16 @@
       <c r="F32" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="54" t="s">
-        <v>124</v>
+      <c r="G32" s="56" t="s">
+        <v>138</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="55">
+        <v>97</v>
+      </c>
+      <c r="I32" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K32" s="55" t="s">

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3436B-F551-4918-940D-0D709FD59E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A03C29-095F-4B16-B5C9-C01DF547C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1096,10 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//스킬이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기획용 COMMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,64 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>스킬 테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Skill_Table.xlsx)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이펙트 테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Effect_Table.xlsx)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">의 ID </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trigger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,84 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과를 구성하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">매개 변수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">매개 변수의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인자 값</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,34 +1171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>원의 중심</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(영역의 기준점)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과 대상 사이의 거리가 반지름보다 작을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,34 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>중심선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(빨간 점선)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RECTANGLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,183 +1187,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>로컬 좌표를 기준으로 대상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(점)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과 네 꼭짓점의 좌표를 비교하여 
-대상이 사각형 내부에 있을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>영역 설명</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(area_type, area_value)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역을 따로(추가로) 지정할 필요가 없는 경우 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex) 적중 대상에게 적용되는 효과, 자기 자신에게만 적용되는 효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 반지름</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 중심각의 절반</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 가로 (캐릭터 정면 기준)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 세로 (캐릭터 정면 기준)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,23 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과 적용 영역 유형 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청룡진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1689,74 +1307,6 @@
   </si>
   <si>
     <t>area_v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2168,6 +1718,442 @@
     <t>pull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>영역 설명(area_type, area_value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스킬 테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Skill_Table.xlsx)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이펙트 테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Effect_Table.xlsx)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">의 ID </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 적용 영역 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과를 구성하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">매개 변수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">매개 변수의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인자 값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역을 따로(추가로) 지정할 필요가 없는 경우 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex) 적중 대상에게 적용되는 효과, 자기 자신에게만 적용되는 효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>원의 중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(영역의 기준점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 대상 사이의 거리가 반지름보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 반지름</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중심선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(빨간 점선)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 중심각의 절반</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로컬 좌표를 기준으로 대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 네 꼭짓점의 좌표를 비교하여 
+대상이 사각형 내부에 있을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 가로 (캐릭터 정면 기준)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 세로 (캐릭터 정면 기준)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//스킬 &amp; 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2178,7 +2164,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,15 +2189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -2230,42 +2207,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="맑은 고딕"/>
@@ -2276,14 +2217,6 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2363,14 +2296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -2382,14 +2307,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2439,6 +2356,40 @@
       <b/>
       <sz val="9"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3022,16 +2973,16 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3040,241 +2991,241 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3314,10 +3265,10 @@
       <xdr:rowOff>94768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9907</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095175</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161312</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3345,8 +3296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1448781" y="6223425"/>
-          <a:ext cx="955982" cy="937400"/>
+          <a:off x="1335570" y="4704868"/>
+          <a:ext cx="658765" cy="651992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,15 +3309,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381923</xdr:colOff>
+      <xdr:colOff>351443</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>84523</xdr:rowOff>
+      <xdr:rowOff>54043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>64393</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1084895</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>177197</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3394,8 +3345,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1394294" y="7933123"/>
-          <a:ext cx="1064955" cy="963532"/>
+          <a:off x="1250603" y="6020503"/>
+          <a:ext cx="733452" cy="669857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,15 +3358,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>107895</xdr:colOff>
+      <xdr:colOff>260295</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44506</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>87652</xdr:rowOff>
+      <xdr:rowOff>72201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3443,8 +3394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="684838" y="9568543"/>
-          <a:ext cx="2483868" cy="1176224"/>
+          <a:off x="839415" y="7421880"/>
+          <a:ext cx="1698045" cy="811341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3755,535 +3706,545 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.69921875" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="3.19921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="61.69921875" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="83"/>
       <c r="E2" s="84"/>
-      <c r="F2" s="37" t="s">
-        <v>35</v>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="38">
+        <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" ref="C6:C14" si="0">ROW(C6)-4</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="E8" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="47">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C6" s="22">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="22">
-        <v>3</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="D10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="47">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="35">
-        <v>4</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="35">
-        <v>5</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="35">
-        <v>6</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D11" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="47">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="35">
-        <v>7</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="35">
+      <c r="D13" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="35">
-        <v>9</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="35">
-        <v>10</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="E14" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="85" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D18" s="86"/>
       <c r="E18" s="87"/>
-      <c r="F18" s="49" t="s">
-        <v>118</v>
+      <c r="F18" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="38">
+      <c r="C19" s="56">
         <v>1</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="67"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="69"/>
     </row>
-    <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="38">
+    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="56">
         <v>2</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="67"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
       <c r="F22" s="69"/>
     </row>
-    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="38">
+    <row r="23" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="56">
         <v>3</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="79"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="81"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="40">
+      <c r="C25" s="60">
         <v>4</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>41</v>
+      <c r="D25" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
-      <c r="F26" s="42" t="s">
-        <v>52</v>
+      <c r="F26" s="63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="75"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="75"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
       <c r="E29" s="75"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="63"/>
+    </row>
+    <row r="30" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
       <c r="E30" s="78"/>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="64"/>
+    </row>
+    <row r="31" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="69"/>
     </row>
-    <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C32" s="44">
+    <row r="32" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C32" s="65">
         <v>5</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>44</v>
+      <c r="D32" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
-      <c r="F33" s="42" t="s">
-        <v>52</v>
+      <c r="F33" s="63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C34" s="73"/>
       <c r="D34" s="74"/>
       <c r="E34" s="75"/>
-      <c r="F34" s="42" t="s">
-        <v>53</v>
+      <c r="F34" s="63" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
       <c r="E35" s="75"/>
-      <c r="F35" s="42"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C36" s="73"/>
       <c r="D36" s="74"/>
       <c r="E36" s="75"/>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F36" s="63"/>
+    </row>
+    <row r="37" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="76"/>
       <c r="D37" s="77"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F37" s="64"/>
+    </row>
+    <row r="38" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C38" s="67"/>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
       <c r="F38" s="69"/>
     </row>
-    <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C39" s="40">
+    <row r="39" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C39" s="60">
         <v>6</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>47</v>
+      <c r="D39" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C40" s="70"/>
       <c r="D40" s="71"/>
       <c r="E40" s="72"/>
-      <c r="F40" s="42" t="s">
-        <v>54</v>
+      <c r="F40" s="63" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C41" s="73"/>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="42" t="s">
-        <v>55</v>
+      <c r="F41" s="63" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C42" s="73"/>
       <c r="D42" s="74"/>
       <c r="E42" s="75"/>
-      <c r="F42" s="42"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C43" s="73"/>
       <c r="D43" s="74"/>
       <c r="E43" s="75"/>
-      <c r="F43" s="42"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C44" s="73"/>
       <c r="D44" s="74"/>
       <c r="E44" s="75"/>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F44" s="63"/>
+    </row>
+    <row r="45" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="76"/>
       <c r="D45" s="77"/>
       <c r="E45" s="78"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C48" s="1"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="1"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C50" s="1"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" s="1"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="1"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="1"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="1"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="1"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="1"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="1"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C58" s="1"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C59" s="1"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C60" s="1"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C61" s="1"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C62" s="1"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C63" s="1"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C64" s="1"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" s="1"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" s="1"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="1"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="1"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="1"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="1"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="1"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="1"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="1"/>
+      <c r="C73" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4310,24 +4271,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="34" customWidth="1"/>
-    <col min="9" max="10" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="9" customWidth="1"/>
+    <col min="9" max="10" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.69921875" style="8" customWidth="1"/>
     <col min="15" max="16" width="15.69921875" style="7" customWidth="1"/>
     <col min="17" max="17" width="18.69921875" style="7" customWidth="1"/>
@@ -4337,40 +4298,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="66" t="s">
+      <c r="F1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2"/>
@@ -4388,1495 +4349,1495 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16">
+        <v>305000</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
+        <v>305001</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3051800</v>
+      </c>
+      <c r="D6" s="16">
+        <v>305180</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3051801</v>
+      </c>
+      <c r="D7" s="16">
+        <v>305180</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3051810</v>
+      </c>
+      <c r="D8" s="16">
+        <v>305181</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D9" s="16">
+        <v>305181</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="17">
+        <v>4</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+    </row>
+    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3052500</v>
+      </c>
+      <c r="D11" s="16">
+        <v>305250</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="17">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17">
+        <v>12</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3052501</v>
+      </c>
+      <c r="D12" s="16">
+        <v>305250</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="17">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17">
+        <v>16</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3052510</v>
+      </c>
+      <c r="D13" s="16">
+        <v>305251</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="17">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17">
+        <v>12</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3052511</v>
+      </c>
+      <c r="D14" s="16">
+        <v>305251</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="17">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17">
+        <v>16</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3052600</v>
+      </c>
+      <c r="D15" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4980</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3052601</v>
+      </c>
+      <c r="D16" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4982</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3052602</v>
+      </c>
+      <c r="D17" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8000</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3052603</v>
+      </c>
+      <c r="D18" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3052604</v>
+      </c>
+      <c r="D19" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="17">
+        <v>8</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3052605</v>
+      </c>
+      <c r="D20" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="17">
+        <v>8</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3052606</v>
+      </c>
+      <c r="D21" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="17">
+        <v>8</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3052607</v>
+      </c>
+      <c r="D22" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3052608</v>
+      </c>
+      <c r="D23" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5501</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3052700</v>
+      </c>
+      <c r="D24" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E24" s="16">
+        <v>4980</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3052701</v>
+      </c>
+      <c r="D25" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E25" s="16">
+        <v>4982</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3052702</v>
+      </c>
+      <c r="D26" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="H26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="17">
+        <v>5</v>
+      </c>
+      <c r="J26" s="17">
+        <v>10</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3052703</v>
+      </c>
+      <c r="D27" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5501</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="16">
+        <v>3052704</v>
+      </c>
+      <c r="D28" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="17">
+        <v>10</v>
+      </c>
+      <c r="J28" s="17">
+        <v>8</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+    </row>
+    <row r="29" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3052705</v>
+      </c>
+      <c r="D29" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="17">
+        <v>10</v>
+      </c>
+      <c r="J29" s="17">
+        <v>8</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+    </row>
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="16">
+        <v>3052706</v>
+      </c>
+      <c r="D30" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54">
-        <v>305000</v>
-      </c>
-      <c r="E2" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-    </row>
-    <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54">
-        <v>305001</v>
-      </c>
-      <c r="E3" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-    </row>
-    <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-    </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-    </row>
-    <row r="6" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="54">
-        <v>3051800</v>
-      </c>
-      <c r="D6" s="54">
-        <v>305180</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="55" t="s">
+      <c r="H30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="17">
+        <v>10</v>
+      </c>
+      <c r="J30" s="17">
+        <v>5</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3052707</v>
+      </c>
+      <c r="D31" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E31" s="16">
+        <v>5500</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-    </row>
-    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="54">
-        <v>3051801</v>
-      </c>
-      <c r="D7" s="54">
-        <v>305180</v>
-      </c>
-      <c r="E7" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="55">
-        <v>4</v>
-      </c>
-      <c r="J7" s="55" t="s">
+      <c r="K31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-    </row>
-    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="54">
-        <v>3051810</v>
-      </c>
-      <c r="D8" s="54">
-        <v>305181</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="55" t="s">
+      <c r="L31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="16">
+        <v>3052708</v>
+      </c>
+      <c r="D32" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5501</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-    </row>
-    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="54">
-        <v>3051811</v>
-      </c>
-      <c r="D9" s="54">
-        <v>305181</v>
-      </c>
-      <c r="E9" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="55">
-        <v>4</v>
-      </c>
-      <c r="J9" s="55" t="s">
+      <c r="J32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-    </row>
-    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-    </row>
-    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="54">
-        <v>3052500</v>
-      </c>
-      <c r="D11" s="54">
-        <v>305250</v>
-      </c>
-      <c r="E11" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="55">
-        <v>4</v>
-      </c>
-      <c r="J11" s="55">
-        <v>12</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-    </row>
-    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="54">
-        <v>3052501</v>
-      </c>
-      <c r="D12" s="54">
-        <v>305250</v>
-      </c>
-      <c r="E12" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="55">
-        <v>4</v>
-      </c>
-      <c r="J12" s="55">
-        <v>16</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-    </row>
-    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="54">
-        <v>3052510</v>
-      </c>
-      <c r="D13" s="54">
-        <v>305251</v>
-      </c>
-      <c r="E13" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="55">
-        <v>4</v>
-      </c>
-      <c r="J13" s="55">
-        <v>12</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-    </row>
-    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="54">
-        <v>3052511</v>
-      </c>
-      <c r="D14" s="54">
-        <v>305251</v>
-      </c>
-      <c r="E14" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="55">
-        <v>4</v>
-      </c>
-      <c r="J14" s="55">
-        <v>16</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-    </row>
-    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="54">
-        <v>3052600</v>
-      </c>
-      <c r="D15" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E15" s="54">
-        <v>4980</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="55" t="s">
+      <c r="K32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="L32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-    </row>
-    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="54">
-        <v>3052601</v>
-      </c>
-      <c r="D16" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E16" s="54">
-        <v>4982</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-    </row>
-    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="54">
-        <v>3052602</v>
-      </c>
-      <c r="D17" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E17" s="54">
-        <v>8000</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-    </row>
-    <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="54">
-        <v>3052603</v>
-      </c>
-      <c r="D18" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E18" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-    </row>
-    <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="54">
-        <v>3052604</v>
-      </c>
-      <c r="D19" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E19" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="55">
-        <v>8</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-    </row>
-    <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="54">
-        <v>3052605</v>
-      </c>
-      <c r="D20" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E20" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="55">
-        <v>8</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-    </row>
-    <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="54">
-        <v>3052606</v>
-      </c>
-      <c r="D21" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E21" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="55">
-        <v>8</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-    </row>
-    <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="54">
-        <v>3052607</v>
-      </c>
-      <c r="D22" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E22" s="54">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-    </row>
-    <row r="23" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="54">
-        <v>3052608</v>
-      </c>
-      <c r="D23" s="54">
-        <v>305260</v>
-      </c>
-      <c r="E23" s="54">
-        <v>5501</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-    </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="54">
-        <v>3052700</v>
-      </c>
-      <c r="D24" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E24" s="54">
-        <v>4980</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-    </row>
-    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="54">
-        <v>3052701</v>
-      </c>
-      <c r="D25" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E25" s="54">
-        <v>4982</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-    </row>
-    <row r="26" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="54">
-        <v>3052702</v>
-      </c>
-      <c r="D26" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E26" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="55">
-        <v>5</v>
-      </c>
-      <c r="J26" s="55">
-        <v>10</v>
-      </c>
-      <c r="K26" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-    </row>
-    <row r="27" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="54">
-        <v>3052703</v>
-      </c>
-      <c r="D27" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E27" s="54">
-        <v>5501</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-    </row>
-    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="54">
-        <v>3052704</v>
-      </c>
-      <c r="D28" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E28" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="55">
-        <v>10</v>
-      </c>
-      <c r="J28" s="55">
-        <v>8</v>
-      </c>
-      <c r="K28" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-    </row>
-    <row r="29" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="54">
-        <v>3052705</v>
-      </c>
-      <c r="D29" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E29" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="55">
-        <v>10</v>
-      </c>
-      <c r="J29" s="55">
-        <v>8</v>
-      </c>
-      <c r="K29" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-    </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="54">
-        <v>3052706</v>
-      </c>
-      <c r="D30" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E30" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="55">
-        <v>10</v>
-      </c>
-      <c r="J30" s="55">
-        <v>5</v>
-      </c>
-      <c r="K30" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-    </row>
-    <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="54">
-        <v>3052707</v>
-      </c>
-      <c r="D31" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E31" s="54">
-        <v>5500</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-    </row>
-    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="54">
-        <v>3052708</v>
-      </c>
-      <c r="D32" s="54">
-        <v>305270</v>
-      </c>
-      <c r="E32" s="54">
-        <v>5501</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(변경중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A03C29-095F-4B16-B5C9-C01DF547C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB89A47B-EFA3-42A2-9A51-CF3A0FF683BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,18 +1239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[damage,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[500,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[300,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청룡진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1291,10 +1279,6 @@
   </si>
   <si>
     <t>피격 이상 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회 타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1544,57 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>debuff_immune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2152,6 +2085,85 @@
   </si>
   <si>
     <t>//스킬 &amp; 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3174,6 +3186,33 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3199,33 +3238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3706,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3723,11 +3735,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>0</v>
@@ -3793,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3811,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -3826,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3841,7 +3853,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3856,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3865,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3880,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -3901,7 +3913,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -3916,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3927,13 +3939,13 @@
     </row>
     <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="C18" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3947,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3991,10 +4003,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="60">
@@ -4007,39 +4019,39 @@
         <v>35</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="63" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="63"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="63"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="63"/>
     </row>
     <row r="30" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="64"/>
     </row>
     <row r="31" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -4059,41 +4071,41 @@
         <v>37</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="63" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="63" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="63"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="63"/>
     </row>
     <row r="37" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="64"/>
     </row>
     <row r="38" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -4113,47 +4125,47 @@
         <v>39</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="72"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="63" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
       <c r="F41" s="63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="63"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="63"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="63"/>
     </row>
     <row r="45" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="78"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="64"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
@@ -4248,16 +4260,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C40:E45"/>
+    <mergeCell ref="C26:E30"/>
+    <mergeCell ref="C33:E37"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:E45"/>
-    <mergeCell ref="C26:E30"/>
-    <mergeCell ref="C33:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4269,11 +4281,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4299,10 +4311,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>10</v>
@@ -4323,10 +4335,10 @@
         <v>24</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>48</v>
@@ -4350,12 +4362,14 @@
     </row>
     <row r="2" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="16"/>
+        <v>136</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3050000</v>
+      </c>
       <c r="D2" s="16">
         <v>305000</v>
       </c>
@@ -4365,15 +4379,23 @@
       <c r="F2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="G2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="K2" s="18" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
@@ -4390,15 +4412,14 @@
       <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="B3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>137</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3050001</v>
+      </c>
       <c r="D3" s="16">
-        <v>305001</v>
+        <v>305000</v>
       </c>
       <c r="E3" s="16">
         <v>1000</v>
@@ -4406,15 +4427,23 @@
       <c r="F3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="K3" s="18" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4431,17 +4460,42 @@
       <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3050010</v>
+      </c>
+      <c r="D4" s="16">
+        <v>305001</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="12"/>
@@ -4456,19 +4510,18 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="12"/>
@@ -4484,38 +4537,18 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="16">
-        <v>3051800</v>
-      </c>
-      <c r="D6" s="16">
-        <v>305180</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>115</v>
-      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="12"/>
@@ -4530,39 +4563,38 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="16">
-        <v>3051801</v>
+        <v>3051800</v>
       </c>
       <c r="D7" s="16">
         <v>305180</v>
       </c>
-      <c r="E7" s="16">
-        <v>1000</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="17">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -4579,37 +4611,38 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="B8" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="16">
-        <v>3051810</v>
+        <v>3051801</v>
       </c>
       <c r="D8" s="16">
-        <v>305181</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>305180</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1000</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="I8" s="17">
+        <v>4</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -4626,38 +4659,37 @@
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="B9" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C9" s="16">
-        <v>3051811</v>
+        <v>3051810</v>
       </c>
       <c r="D9" s="16">
         <v>305181</v>
       </c>
-      <c r="E9" s="16">
-        <v>1000</v>
-      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -4674,24 +4706,39 @@
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D10" s="16">
+        <v>305181</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="17">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="12"/>
@@ -4708,41 +4755,23 @@
     </row>
     <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="16">
-        <v>3052500</v>
-      </c>
-      <c r="D11" s="16">
-        <v>305250</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="17">
-        <v>4</v>
-      </c>
-      <c r="J11" s="17">
-        <v>12</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>60</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="12"/>
@@ -4758,11 +4787,14 @@
       <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="B12" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C12" s="16">
-        <v>3052501</v>
+        <v>3052500</v>
       </c>
       <c r="D12" s="16">
         <v>305250</v>
@@ -4774,22 +4806,22 @@
         <v>46</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" s="17">
         <v>4</v>
       </c>
       <c r="J12" s="17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -4806,17 +4838,14 @@
       <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="B13" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="16">
-        <v>3052510</v>
+        <v>3052501</v>
       </c>
       <c r="D13" s="16">
-        <v>305251</v>
+        <v>305250</v>
       </c>
       <c r="E13" s="16">
         <v>1000</v>
@@ -4828,19 +4857,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" s="17">
         <v>4</v>
       </c>
       <c r="J13" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -4857,11 +4886,14 @@
       <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="B14" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C14" s="16">
-        <v>3052511</v>
+        <v>3052510</v>
       </c>
       <c r="D14" s="16">
         <v>305251</v>
@@ -4873,22 +4905,22 @@
         <v>46</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" s="17">
         <v>4</v>
       </c>
       <c r="J14" s="17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -4905,41 +4937,38 @@
       <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>66</v>
+      <c r="B15" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="16">
-        <v>3052600</v>
+        <v>3052511</v>
       </c>
       <c r="D15" s="16">
-        <v>305260</v>
+        <v>305251</v>
       </c>
       <c r="E15" s="16">
-        <v>4980</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="17">
+        <v>4</v>
+      </c>
+      <c r="J15" s="17">
+        <v>16</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -4956,24 +4985,26 @@
       <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
+      <c r="A16" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" s="23" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16">
-        <v>3052601</v>
+        <v>3052600</v>
       </c>
       <c r="D16" s="16">
         <v>305260</v>
       </c>
       <c r="E16" s="16">
-        <v>4982</v>
+        <v>4980</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>27</v>
@@ -5007,25 +5038,25 @@
     <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C17" s="16">
-        <v>3052602</v>
+        <v>3052601</v>
       </c>
       <c r="D17" s="16">
         <v>305260</v>
       </c>
       <c r="E17" s="16">
-        <v>8000</v>
+        <v>4982</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>0</v>
@@ -5034,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -5056,25 +5087,25 @@
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C18" s="16">
-        <v>3052603</v>
+        <v>3052602</v>
       </c>
       <c r="D18" s="16">
         <v>305260</v>
       </c>
       <c r="E18" s="16">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>0</v>
@@ -5082,11 +5113,11 @@
       <c r="J18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>18</v>
+      <c r="K18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -5105,10 +5136,10 @@
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="16">
-        <v>3052604</v>
+        <v>3052603</v>
       </c>
       <c r="D19" s="16">
         <v>305260</v>
@@ -5120,22 +5151,22 @@
         <v>46</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="17">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -5154,10 +5185,10 @@
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C20" s="16">
-        <v>3052605</v>
+        <v>3052604</v>
       </c>
       <c r="D20" s="16">
         <v>305260</v>
@@ -5169,7 +5200,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>21</v>
@@ -5181,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -5203,10 +5234,10 @@
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23"/>
       <c r="B21" s="23" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C21" s="16">
-        <v>3052606</v>
+        <v>3052605</v>
       </c>
       <c r="D21" s="16">
         <v>305260</v>
@@ -5218,7 +5249,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>21</v>
@@ -5230,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -5252,37 +5283,37 @@
     <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C22" s="16">
-        <v>3052607</v>
+        <v>3052606</v>
       </c>
       <c r="D22" s="16">
         <v>305260</v>
       </c>
       <c r="E22" s="16">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="I22" s="17">
+        <v>8</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>0</v>
+      <c r="K22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -5298,28 +5329,28 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C23" s="16">
-        <v>3052608</v>
+        <v>3052607</v>
       </c>
       <c r="D23" s="16">
         <v>305260</v>
       </c>
       <c r="E23" s="16">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>119</v>
+      <c r="G23" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>0</v>
@@ -5327,10 +5358,10 @@
       <c r="J23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="17" t="s">
         <v>0</v>
       </c>
       <c r="M23" s="19"/>
@@ -5347,30 +5378,28 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
-        <v>87</v>
-      </c>
+    <row r="24" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
       <c r="B24" s="23" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C24" s="16">
-        <v>3052700</v>
+        <v>3052608</v>
       </c>
       <c r="D24" s="16">
-        <v>305270</v>
+        <v>305260</v>
       </c>
       <c r="E24" s="16">
-        <v>4980</v>
+        <v>5501</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>0</v>
@@ -5378,14 +5407,14 @@
       <c r="J24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="18" t="s">
         <v>0</v>
       </c>
       <c r="M24" s="19"/>
-      <c r="N24" s="17"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -5399,27 +5428,29 @@
       <c r="Y24" s="12"/>
     </row>
     <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
+      <c r="A25" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="B25" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C25" s="16">
-        <v>3052701</v>
+        <v>3052700</v>
       </c>
       <c r="D25" s="16">
         <v>305270</v>
       </c>
       <c r="E25" s="16">
-        <v>4982</v>
+        <v>4980</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>0</v>
@@ -5433,106 +5464,106 @@
       <c r="L25" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="21"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" s="16">
-        <v>3052702</v>
+        <v>3052701</v>
       </c>
       <c r="D26" s="16">
         <v>305270</v>
       </c>
       <c r="E26" s="16">
-        <v>1000</v>
+        <v>4982</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="17">
-        <v>5</v>
-      </c>
-      <c r="J26" s="17">
-        <v>10</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M26" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
     </row>
     <row r="27" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23"/>
       <c r="B27" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="16">
-        <v>3052703</v>
+        <v>3052702</v>
       </c>
       <c r="D27" s="16">
         <v>305270</v>
       </c>
       <c r="E27" s="16">
-        <v>5501</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="17">
+        <v>5</v>
+      </c>
+      <c r="J27" s="17">
+        <v>10</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -5545,40 +5576,40 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23"/>
       <c r="B28" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" s="16">
-        <v>3052704</v>
+        <v>3052703</v>
       </c>
       <c r="D28" s="16">
         <v>305270</v>
       </c>
       <c r="E28" s="16">
-        <v>1000</v>
+        <v>5501</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="17">
-        <v>10</v>
-      </c>
-      <c r="J28" s="17">
-        <v>8</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -5594,13 +5625,13 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23"/>
       <c r="B29" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C29" s="16">
-        <v>3052705</v>
+        <v>3052704</v>
       </c>
       <c r="D29" s="16">
         <v>305270</v>
@@ -5612,10 +5643,10 @@
         <v>46</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I29" s="17">
         <v>10</v>
@@ -5624,10 +5655,10 @@
         <v>8</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -5643,13 +5674,13 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="16">
-        <v>3052706</v>
+        <v>3052705</v>
       </c>
       <c r="D30" s="16">
         <v>305270</v>
@@ -5661,60 +5692,71 @@
         <v>46</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I30" s="17">
         <v>10</v>
       </c>
       <c r="J30" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23"/>
       <c r="B31" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="16">
-        <v>3052707</v>
+        <v>3052706</v>
       </c>
       <c r="D31" s="16">
         <v>305270</v>
       </c>
       <c r="E31" s="16">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="I31" s="17">
+        <v>10</v>
+      </c>
+      <c r="J31" s="17">
+        <v>5</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -5722,25 +5764,25 @@
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23"/>
       <c r="B32" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C32" s="16">
-        <v>3052708</v>
+        <v>3052707</v>
       </c>
       <c r="D32" s="16">
         <v>305270</v>
       </c>
       <c r="E32" s="16">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>119</v>
+      <c r="G32" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>0</v>
@@ -5757,22 +5799,45 @@
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
     </row>
-    <row r="33" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="16">
+        <v>3052708</v>
+      </c>
+      <c r="D33" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E33" s="16">
+        <v>5501</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
     </row>
-    <row r="34" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="19"/>
@@ -5787,7 +5852,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
     </row>
-    <row r="35" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
       <c r="D35" s="19"/>
@@ -5799,8 +5864,10 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+    </row>
+    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="19"/>
@@ -5813,7 +5880,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="19"/>
@@ -5826,7 +5893,7 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="19"/>
@@ -5839,6 +5906,19 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
     </row>
+    <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
